--- a/config_files/Schedule Model Leap Year.xlsx
+++ b/config_files/Schedule Model Leap Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa Gayoso\Documents\Github\PLB-Schedules\config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F5D67-FC5C-4863-947E-DDCCB658CB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D2B0FF-9EF0-4676-85E9-BE35A6B14F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -443,6 +443,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,8 +469,6 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,27 +881,27 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -910,7 +910,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -919,7 +919,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -928,34 +928,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -963,11 +963,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -975,11 +975,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -987,11 +987,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -999,11 +999,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1013,11 +1013,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1028,12 +1028,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>1</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>3</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>4</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>5</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>6</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>7</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>8</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>9</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>10</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>11</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>12</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>13</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>14</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>15</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>16</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
         <v>17</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
         <v>18</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
         <v>19</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
         <v>20</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>21</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>22</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>23</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>24</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
         <v>25</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
         <v>26</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
         <v>27</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="25">
         <v>28</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="25">
         <v>29</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="25">
         <v>30</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="25">
         <v>31</v>
       </c>
@@ -1374,17 +1374,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1410,52 +1410,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1476,66 +1476,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6486AC-E003-4CAB-A4AB-BA9BC6FF6CEA}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1543,11 +1543,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1555,11 +1555,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1567,11 +1567,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1579,11 +1579,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1593,11 +1593,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1608,12 +1608,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -1954,17 +1954,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1990,52 +1990,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2055,66 +2055,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740F8E4-54E9-4FB6-8D9A-49E25F55FD76}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2122,11 +2122,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2134,11 +2134,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2146,11 +2146,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2158,11 +2158,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2172,11 +2172,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2187,12 +2187,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -2522,17 +2522,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -2558,52 +2558,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2623,66 +2623,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3618790-2BCB-4B60-BBFB-C820F665B2BD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2690,11 +2690,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2702,11 +2702,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2714,11 +2714,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2726,11 +2726,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2740,11 +2740,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2755,12 +2755,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -3101,17 +3101,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3137,52 +3137,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3202,27 +3202,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E731D6A-1AF2-42E7-AE13-0257C1BC47F0}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -3231,7 +3231,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3240,7 +3240,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -3249,34 +3249,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3284,11 +3284,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3296,11 +3296,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3308,11 +3308,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3320,11 +3320,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3334,11 +3334,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3349,12 +3349,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
         <v>1</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
         <v>2</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="20">
         <v>3</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
         <v>4</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="20">
         <v>5</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
         <v>6</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
         <v>7</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
         <v>8</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
         <v>9</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
         <v>10</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
         <v>11</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="20">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="20">
         <v>13</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="20">
         <v>14</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
         <v>15</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="20">
         <v>16</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="20">
         <v>17</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="20">
         <v>18</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
         <v>19</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="20">
         <v>20</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="20">
         <v>21</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="20">
         <v>22</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="20">
         <v>23</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="20">
         <v>24</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="20">
         <v>25</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="20">
         <v>26</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="20">
         <v>27</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="20">
         <v>28</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="20">
         <v>29</v>
       </c>
@@ -3673,24 +3673,24 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G47" s="14">
-        <f>SUM(G16:G45)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-29</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -3725,52 +3725,52 @@
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3790,27 +3790,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE4023-35E9-4427-A2E3-62E45B00EDF5}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -3819,7 +3819,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3828,7 +3828,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -3837,34 +3837,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3872,11 +3872,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3884,11 +3884,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3896,11 +3896,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3908,11 +3908,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3922,11 +3922,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3937,12 +3937,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -4283,17 +4283,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -4321,52 +4321,52 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4386,27 +4386,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C68094-695E-4DEE-9781-A162D3F8C272}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -4415,7 +4415,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -4424,7 +4424,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -4433,34 +4433,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -4468,11 +4468,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4480,11 +4480,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4492,11 +4492,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -4504,11 +4504,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -4518,11 +4518,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -4533,12 +4533,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -4868,22 +4868,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -4909,52 +4909,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4974,27 +4974,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EED29-FE3C-458D-A7F1-9E7329998434}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -5003,7 +5003,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -5012,7 +5012,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -5021,34 +5021,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5056,11 +5056,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5068,11 +5068,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5080,11 +5080,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5092,11 +5092,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5106,11 +5106,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -5121,12 +5121,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -5467,17 +5467,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -5503,52 +5503,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5568,66 +5568,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6AC2CD-893F-41C5-9C9B-6E61F154DBF8}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5635,11 +5635,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5647,11 +5647,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5659,11 +5659,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5671,16 +5671,16 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5690,11 +5690,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -5705,12 +5705,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -6040,17 +6040,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6076,52 +6076,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6142,66 +6142,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BE021-B7E6-4F89-B7B6-87A6EC5D824F}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -6209,11 +6209,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6221,11 +6221,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6233,11 +6233,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6245,11 +6245,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6259,11 +6259,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6274,12 +6274,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -6620,17 +6620,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6656,52 +6656,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6721,66 +6721,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF978304-926E-4C89-893F-97ABC2FEF105}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -6788,11 +6788,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6800,11 +6800,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6812,11 +6812,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6824,11 +6824,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6838,11 +6838,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6853,12 +6853,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -7199,17 +7199,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7235,52 +7235,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7300,66 +7300,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A203EC-78E1-474A-A815-50A7240493FD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -7367,11 +7367,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -7379,11 +7379,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -7391,11 +7391,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -7403,11 +7403,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -7417,11 +7417,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -7432,12 +7432,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f>(G49-G47)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -7767,17 +7767,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
-        <f>SUM(G16:G46)</f>
+        <f>SUMIF(G16:G46,"&lt;&gt;Vacaciones")+(COUNTIF(G16:G46,"Baja")+COUNTIF(G16:G46,"Vacaciones Anteriores"))*8</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7803,52 +7803,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
